--- a/data/trans_orig/P14C07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A26F33D-4FBD-4431-AB93-746485D6B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D91F8E-4D7E-4313-9BA9-1E1731675FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94DC4081-A331-4916-8030-9C16456E6E10}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{890006F1-5BB9-42A5-92B2-6455E131E102}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="133">
   <si>
     <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2015 (Tasa respuesta: 1,02%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>65,96%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,322 +113,325 @@
     <t>25,71%</t>
   </si>
   <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>33,27%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -843,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B637A-E9B7-4B9C-8DDA-5CA927932BA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEA18A4-B682-46DE-8512-E660F143D9F5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2709,13 +2712,13 @@
         <v>1050</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2724,13 +2727,13 @@
         <v>1901</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -2739,13 +2742,13 @@
         <v>2951</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2804,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D91F8E-4D7E-4313-9BA9-1E1731675FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83F6138-7AAB-43B3-BC06-F7064B6E8E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{890006F1-5BB9-42A5-92B2-6455E131E102}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3AB7186-C106-4B8E-A9EE-9762174E5F0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="133">
   <si>
-    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>65,96%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>25,71%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>8,33%</t>
   </si>
   <si>
-    <t>37,72%</t>
+    <t>37,27%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>35,05%</t>
+    <t>36,68%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -170,10 +170,10 @@
     <t>57,62%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>55,36%</t>
@@ -185,10 +185,10 @@
     <t>42,38%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -203,37 +203,37 @@
     <t>76,25%</t>
   </si>
   <si>
-    <t>34,27%</t>
+    <t>31,71%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>40,29%</t>
+    <t>39,02%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>57,11%</t>
+    <t>57,27%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>46,07%</t>
+    <t>53,47%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>53,29%</t>
+    <t>40,1%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>46,74%</t>
+    <t>46,76%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -266,7 +266,7 @@
     <t>81,43%</t>
   </si>
   <si>
-    <t>52,65%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>94,78%</t>
@@ -275,10 +275,10 @@
     <t>72,96%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>45,93%</t>
@@ -290,16 +290,16 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>47,35%</t>
+    <t>45,92%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>54,07%</t>
@@ -311,7 +311,7 @@
     <t>5,63%</t>
   </si>
   <si>
-    <t>26,97%</t>
+    <t>24,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -320,37 +320,37 @@
     <t>64,25%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -362,76 +362,76 @@
     <t>69,71%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>33,27%</t>
+    <t>34,36%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>10,12%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEA18A4-B682-46DE-8512-E660F143D9F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948A794A-074A-4236-97CC-5D24F6712846}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
